--- a/MavenProject1/data/TC001 - Copy.xlsx
+++ b/MavenProject1/data/TC001 - Copy.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="8040"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -445,21 +445,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -494,7 +497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -525,15 +528,11 @@
       <c r="J2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" location="/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/MavenProject1/data/TC001 - Copy.xlsx
+++ b/MavenProject1/data/TC001 - Copy.xlsx
@@ -40,15 +40,9 @@
     <t>mgoodey</t>
   </si>
   <si>
-    <t>M2_PrototypeWithChart</t>
-  </si>
-  <si>
     <t>8000</t>
   </si>
   <si>
-    <t>Performance Summary</t>
-  </si>
-  <si>
     <t>ReportsTabReport</t>
   </si>
   <si>
@@ -74,6 +68,12 @@
   </si>
   <si>
     <t>https://10.130.35.58/modules/olapv3/#/login</t>
+  </si>
+  <si>
+    <t>Attrib And Risk Report</t>
+  </si>
+  <si>
+    <t>Analysis for</t>
   </si>
 </sst>
 </file>
@@ -136,10 +136,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -448,7 +446,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,21 +483,21 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -508,25 +506,25 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -534,5 +532,6 @@
     <hyperlink ref="A2" r:id="rId1" location="/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>